--- a/biology/Médecine/Sense_of_Tumour/Sense_of_Tumour.xlsx
+++ b/biology/Médecine/Sense_of_Tumour/Sense_of_Tumour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sense of Tumour (Gevoel voor tumor) est une série télévisée belge en huit épisodes de 55 minutes créée par Mathias Claeys, inspirée du livre Gevoel voor tumor de Leander Verdievel, diffusée du 18 mars au 6 mai 2018 sur Één.
 Elle a été élue meilleure série européenne 2018 au festival de Berlin.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tristan est un interne qui veut faire de la chirurgie neurologique, doué, apprécié par ses amis, famille et dans le milieu médical, coureur de jupons, charmeur, joueur de rugby, bon fils, bon frère et oncle ; puis fortuitement on lui découvre un cancer neurologique et la série décrit le passage du côté médical au côté malade, avec en parallèle l'histoire de ses parents, de sa sœur et son couple, ses interactions avec le milieu médical, son équipe de rugby, sa famille ; pendant son hospitalisation il fait la connaissance de Marcel, malade depuis quelques années d'un cancer au cerveau, et de sa petite-fille Hanne, avec laquelle il a une liaison amoureuse.
 A la fin de chaque épisode, des malades ou anciens malades racontent une partie de leur parcours.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maarten Nulens (nl) : Tristan Devriendt
 Els Dottermans : Myriam Devriendt, mère de Tristan
@@ -582,7 +598,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Slecht nieuws (Mauvaises nouvelles)
